--- a/Excel/intheworldofai.xlsx
+++ b/Excel/intheworldofai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>hms_format</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>read</t>
         </is>
       </c>
@@ -477,9 +482,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>124262</v>
+        <v>124753</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -502,9 +512,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61488</v>
+        <v>61875</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>0:11:04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -527,9 +542,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48954</v>
+        <v>49024</v>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>0:09:12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -552,9 +572,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40637</v>
+        <v>40673</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>0:10:16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -577,9 +602,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>37578</v>
+        <v>37803</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>0:11:50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -602,9 +632,14 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28317</v>
+        <v>28375</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>0:08:49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -627,9 +662,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26616</v>
+        <v>26976</v>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>0:09:32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -652,9 +692,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25445</v>
+        <v>25463</v>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0:09:52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -677,9 +722,14 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24203</v>
+        <v>24326</v>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>0:08:51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -702,9 +752,14 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24080</v>
+        <v>24091</v>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>0:11:35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
